--- a/natmiOut/OldD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd69</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.83396306080756</v>
+        <v>4.908374</v>
       </c>
       <c r="H2">
-        <v>4.83396306080756</v>
+        <v>9.816748</v>
       </c>
       <c r="I2">
-        <v>0.06805741660707353</v>
+        <v>0.06587775388176192</v>
       </c>
       <c r="J2">
-        <v>0.06805741660707353</v>
+        <v>0.0614069384453108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0721803891926332</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N2">
-        <v>0.0721803891926332</v>
+        <v>0.145331</v>
       </c>
       <c r="O2">
-        <v>0.002494010937866957</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P2">
-        <v>0.002494010937866957</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q2">
-        <v>0.3489173350719021</v>
+        <v>0.356669450897</v>
       </c>
       <c r="R2">
-        <v>0.3489173350719021</v>
+        <v>1.426677803588</v>
       </c>
       <c r="S2">
-        <v>0.0001697359414210097</v>
+        <v>0.0001600396860128622</v>
       </c>
       <c r="T2">
-        <v>0.0001697359414210097</v>
+        <v>9.963325263677195E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.83396306080756</v>
+        <v>4.908374</v>
       </c>
       <c r="H3">
-        <v>4.83396306080756</v>
+        <v>9.816748</v>
       </c>
       <c r="I3">
-        <v>0.06805741660707353</v>
+        <v>0.06587775388176192</v>
       </c>
       <c r="J3">
-        <v>0.06805741660707353</v>
+        <v>0.0614069384453108</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0164606016034156</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N3">
-        <v>0.0164606016034156</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O3">
-        <v>0.0005687544899935063</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P3">
-        <v>0.0005687544899935063</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q3">
-        <v>0.0795699401095807</v>
+        <v>0.1589805977353334</v>
       </c>
       <c r="R3">
-        <v>0.0795699401095807</v>
+        <v>0.9538835864120001</v>
       </c>
       <c r="S3">
-        <v>3.870796127263169E-05</v>
+        <v>7.133553176396781E-05</v>
       </c>
       <c r="T3">
-        <v>3.870796127263169E-05</v>
+        <v>6.661526808088086E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.83396306080756</v>
+        <v>4.908374</v>
       </c>
       <c r="H4">
-        <v>4.83396306080756</v>
+        <v>9.816748</v>
       </c>
       <c r="I4">
-        <v>0.06805741660707353</v>
+        <v>0.06587775388176192</v>
       </c>
       <c r="J4">
-        <v>0.06805741660707353</v>
+        <v>0.0614069384453108</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6364862150641</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N4">
-        <v>10.6364862150641</v>
+        <v>32.610848</v>
       </c>
       <c r="O4">
-        <v>0.3675169011633482</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P4">
-        <v>0.3675169011633482</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q4">
-        <v>51.41638146040867</v>
+        <v>53.35541281371734</v>
       </c>
       <c r="R4">
-        <v>51.41638146040867</v>
+        <v>320.132476882304</v>
       </c>
       <c r="S4">
-        <v>0.02501225085261465</v>
+        <v>0.02394088838368128</v>
       </c>
       <c r="T4">
-        <v>0.02501225085261465</v>
+        <v>0.02235672263648754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.83396306080756</v>
+        <v>4.908374</v>
       </c>
       <c r="H5">
-        <v>4.83396306080756</v>
+        <v>9.816748</v>
       </c>
       <c r="I5">
-        <v>0.06805741660707353</v>
+        <v>0.06587775388176192</v>
       </c>
       <c r="J5">
-        <v>0.06805741660707353</v>
+        <v>0.0614069384453108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.1581705777213</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N5">
-        <v>18.1581705777213</v>
+        <v>56.265188</v>
       </c>
       <c r="O5">
-        <v>0.6274096958888786</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P5">
-        <v>0.6274096958888786</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q5">
-        <v>87.77592582454743</v>
+        <v>92.05686196143733</v>
       </c>
       <c r="R5">
-        <v>87.77592582454743</v>
+        <v>552.341171768624</v>
       </c>
       <c r="S5">
-        <v>0.04269988305642672</v>
+        <v>0.04130645685125523</v>
       </c>
       <c r="T5">
-        <v>0.04269988305642672</v>
+        <v>0.03857321349649744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.83396306080756</v>
+        <v>4.908374</v>
       </c>
       <c r="H6">
-        <v>4.83396306080756</v>
+        <v>9.816748</v>
       </c>
       <c r="I6">
-        <v>0.06805741660707353</v>
+        <v>0.06587775388176192</v>
       </c>
       <c r="J6">
-        <v>0.06805741660707353</v>
+        <v>0.0614069384453108</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0581908429145628</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N6">
-        <v>0.0581908429145628</v>
+        <v>0.272773</v>
       </c>
       <c r="O6">
-        <v>0.002010637519912812</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P6">
-        <v>0.002010637519912812</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q6">
-        <v>0.2812923851262519</v>
+        <v>0.4462906337006667</v>
       </c>
       <c r="R6">
-        <v>0.2812923851262519</v>
+        <v>2.677743802204</v>
       </c>
       <c r="S6">
-        <v>0.0001368387953385193</v>
+        <v>0.0002002532392620361</v>
       </c>
       <c r="T6">
-        <v>0.0001368387953385193</v>
+        <v>0.0001870025061514075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.2290051387533</v>
+        <v>4.908374</v>
       </c>
       <c r="H7">
-        <v>4.2290051387533</v>
+        <v>9.816748</v>
       </c>
       <c r="I7">
-        <v>0.05954020768075664</v>
+        <v>0.06587775388176192</v>
       </c>
       <c r="J7">
-        <v>0.05954020768075664</v>
+        <v>0.0614069384453108</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0721803891926332</v>
+        <v>0.0902555</v>
       </c>
       <c r="N7">
-        <v>0.0721803891926332</v>
+        <v>0.180511</v>
       </c>
       <c r="O7">
-        <v>0.002494010937866957</v>
+        <v>0.003017409946054226</v>
       </c>
       <c r="P7">
-        <v>0.002494010937866957</v>
+        <v>0.002015265515426615</v>
       </c>
       <c r="Q7">
-        <v>0.305251236812859</v>
+        <v>0.443007749557</v>
       </c>
       <c r="R7">
-        <v>0.305251236812859</v>
+        <v>1.772030998228</v>
       </c>
       <c r="S7">
-        <v>0.0001484939291986773</v>
+        <v>0.0001987801897865408</v>
       </c>
       <c r="T7">
-        <v>0.0001484939291986773</v>
+        <v>0.0001237512854567597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.2290051387533</v>
+        <v>4.627005</v>
       </c>
       <c r="H8">
-        <v>4.2290051387533</v>
+        <v>13.881015</v>
       </c>
       <c r="I8">
-        <v>0.05954020768075664</v>
+        <v>0.06210135914656906</v>
       </c>
       <c r="J8">
-        <v>0.05954020768075664</v>
+        <v>0.08683024497149522</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0164606016034156</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N8">
-        <v>0.0164606016034156</v>
+        <v>0.145331</v>
       </c>
       <c r="O8">
-        <v>0.0005687544899935063</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P8">
-        <v>0.0005687544899935063</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q8">
-        <v>0.06961196876781539</v>
+        <v>0.3362236318274999</v>
       </c>
       <c r="R8">
-        <v>0.06961196876781539</v>
+        <v>2.017341790965</v>
       </c>
       <c r="S8">
-        <v>3.386376045357619E-05</v>
+        <v>0.0001508655264207543</v>
       </c>
       <c r="T8">
-        <v>3.386376045357619E-05</v>
+        <v>0.0001408827724160609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.2290051387533</v>
+        <v>4.627005</v>
       </c>
       <c r="H9">
-        <v>4.2290051387533</v>
+        <v>13.881015</v>
       </c>
       <c r="I9">
-        <v>0.05954020768075664</v>
+        <v>0.06210135914656906</v>
       </c>
       <c r="J9">
-        <v>0.05954020768075664</v>
+        <v>0.08683024497149522</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.6364862150641</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N9">
-        <v>10.6364862150641</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O9">
-        <v>0.3675169011633482</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P9">
-        <v>0.3675169011633482</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q9">
-        <v>44.98175486178472</v>
+        <v>0.149867149615</v>
       </c>
       <c r="R9">
-        <v>44.98175486178472</v>
+        <v>1.348804346535</v>
       </c>
       <c r="S9">
-        <v>0.02188203262145386</v>
+        <v>6.724627384741625E-05</v>
       </c>
       <c r="T9">
-        <v>0.02188203262145386</v>
+        <v>9.419489381409487E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.2290051387533</v>
+        <v>4.627005</v>
       </c>
       <c r="H10">
-        <v>4.2290051387533</v>
+        <v>13.881015</v>
       </c>
       <c r="I10">
-        <v>0.05954020768075664</v>
+        <v>0.06210135914656906</v>
       </c>
       <c r="J10">
-        <v>0.05954020768075664</v>
+        <v>0.08683024497149522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.1581705777213</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N10">
-        <v>18.1581705777213</v>
+        <v>32.610848</v>
       </c>
       <c r="O10">
-        <v>0.6274096958888786</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P10">
-        <v>0.6274096958888786</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q10">
-        <v>76.79099668354236</v>
+        <v>50.29685225008</v>
       </c>
       <c r="R10">
-        <v>76.79099668354236</v>
+        <v>452.6716702507201</v>
       </c>
       <c r="S10">
-        <v>0.03735610359414419</v>
+        <v>0.02256849422145402</v>
       </c>
       <c r="T10">
-        <v>0.03735610359414419</v>
+        <v>0.03161270945000554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.2290051387533</v>
+        <v>4.627005</v>
       </c>
       <c r="H11">
-        <v>4.2290051387533</v>
+        <v>13.881015</v>
       </c>
       <c r="I11">
-        <v>0.05954020768075664</v>
+        <v>0.06210135914656906</v>
       </c>
       <c r="J11">
-        <v>0.05954020768075664</v>
+        <v>0.08683024497149522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0581908429145628</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N11">
-        <v>0.0581908429145628</v>
+        <v>56.265188</v>
       </c>
       <c r="O11">
-        <v>0.002010637519912812</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P11">
-        <v>0.002010637519912812</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q11">
-        <v>0.2460893737140722</v>
+        <v>86.77976873397999</v>
       </c>
       <c r="R11">
-        <v>0.2460893737140722</v>
+        <v>781.01791860582</v>
       </c>
       <c r="S11">
-        <v>0.0001197137755063303</v>
+        <v>0.03893859399936561</v>
       </c>
       <c r="T11">
-        <v>0.0001197137755063303</v>
+        <v>0.0545430477733648</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.58749358463865</v>
+        <v>4.627005</v>
       </c>
       <c r="H12">
-        <v>4.58749358463865</v>
+        <v>13.881015</v>
       </c>
       <c r="I12">
-        <v>0.06458737026837592</v>
+        <v>0.06210135914656906</v>
       </c>
       <c r="J12">
-        <v>0.06458737026837592</v>
+        <v>0.08683024497149522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0721803891926332</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N12">
-        <v>0.0721803891926332</v>
+        <v>0.272773</v>
       </c>
       <c r="O12">
-        <v>0.002494010937866957</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P12">
-        <v>0.002494010937866957</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q12">
-        <v>0.3311270723579257</v>
+        <v>0.420707344955</v>
       </c>
       <c r="R12">
-        <v>0.3311270723579257</v>
+        <v>3.786366104595</v>
       </c>
       <c r="S12">
-        <v>0.0001610816078973927</v>
+        <v>0.0001887738667289081</v>
       </c>
       <c r="T12">
-        <v>0.0001610816078973927</v>
+        <v>0.0002644240835076217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.58749358463865</v>
+        <v>4.627005</v>
       </c>
       <c r="H13">
-        <v>4.58749358463865</v>
+        <v>13.881015</v>
       </c>
       <c r="I13">
-        <v>0.06458737026837592</v>
+        <v>0.06210135914656906</v>
       </c>
       <c r="J13">
-        <v>0.06458737026837592</v>
+        <v>0.08683024497149522</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.0164606016034156</v>
+        <v>0.0902555</v>
       </c>
       <c r="N13">
-        <v>0.0164606016034156</v>
+        <v>0.180511</v>
       </c>
       <c r="O13">
-        <v>0.0005687544899935063</v>
+        <v>0.003017409946054226</v>
       </c>
       <c r="P13">
-        <v>0.0005687544899935063</v>
+        <v>0.002015265515426615</v>
       </c>
       <c r="Q13">
-        <v>0.07551290425496174</v>
+        <v>0.4176126497775</v>
       </c>
       <c r="R13">
-        <v>0.07551290425496174</v>
+        <v>2.505675898665</v>
       </c>
       <c r="S13">
-        <v>3.67343568370119E-05</v>
+        <v>0.0001873852587523431</v>
       </c>
       <c r="T13">
-        <v>3.67343568370119E-05</v>
+        <v>0.0001749859983870996</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.58749358463865</v>
+        <v>0.1397886666666667</v>
       </c>
       <c r="H14">
-        <v>4.58749358463865</v>
+        <v>0.419366</v>
       </c>
       <c r="I14">
-        <v>0.06458737026837592</v>
+        <v>0.001876173938279015</v>
       </c>
       <c r="J14">
-        <v>0.06458737026837592</v>
+        <v>0.002623270165237634</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6364862150641</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N14">
-        <v>10.6364862150641</v>
+        <v>0.145331</v>
       </c>
       <c r="O14">
-        <v>0.3675169011633482</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P14">
-        <v>0.3675169011633482</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q14">
-        <v>48.79481227470399</v>
+        <v>0.01015781335766667</v>
       </c>
       <c r="R14">
-        <v>48.79481227470399</v>
+        <v>0.060946880146</v>
       </c>
       <c r="S14">
-        <v>0.02373695017532329</v>
+        <v>4.557870757503399E-06</v>
       </c>
       <c r="T14">
-        <v>0.02373695017532329</v>
+        <v>4.256276989617387E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.58749358463865</v>
+        <v>0.1397886666666667</v>
       </c>
       <c r="H15">
-        <v>4.58749358463865</v>
+        <v>0.419366</v>
       </c>
       <c r="I15">
-        <v>0.06458737026837592</v>
+        <v>0.001876173938279015</v>
       </c>
       <c r="J15">
-        <v>0.06458737026837592</v>
+        <v>0.002623270165237634</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.1581705777213</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N15">
-        <v>18.1581705777213</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O15">
-        <v>0.6274096958888786</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P15">
-        <v>0.6274096958888786</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q15">
-        <v>83.30049103407075</v>
+        <v>0.004527708317111112</v>
       </c>
       <c r="R15">
-        <v>83.30049103407075</v>
+        <v>0.040749374854</v>
       </c>
       <c r="S15">
-        <v>0.04052274233834414</v>
+        <v>2.03160942325151E-06</v>
       </c>
       <c r="T15">
-        <v>0.04052274233834414</v>
+        <v>2.845767102711272E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1408,235 +1408,235 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.58749358463865</v>
+        <v>0.1397886666666667</v>
       </c>
       <c r="H16">
-        <v>4.58749358463865</v>
+        <v>0.419366</v>
       </c>
       <c r="I16">
-        <v>0.06458737026837592</v>
+        <v>0.001876173938279015</v>
       </c>
       <c r="J16">
-        <v>0.06458737026837592</v>
+        <v>0.002623270165237634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0581908429145628</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N16">
-        <v>0.0581908429145628</v>
+        <v>32.610848</v>
       </c>
       <c r="O16">
-        <v>0.002010637519912812</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P16">
-        <v>0.002010637519912812</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q16">
-        <v>0.2669501185552723</v>
+        <v>1.519542320263111</v>
       </c>
       <c r="R16">
-        <v>0.2669501185552723</v>
+        <v>13.675880882368</v>
       </c>
       <c r="S16">
-        <v>0.0001298617899740979</v>
+        <v>0.0006818276003357312</v>
       </c>
       <c r="T16">
-        <v>0.0001298617899740979</v>
+        <v>0.0009550667232339296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>57.3772571889762</v>
+        <v>0.1397886666666667</v>
       </c>
       <c r="H17">
-        <v>57.3772571889762</v>
+        <v>0.419366</v>
       </c>
       <c r="I17">
-        <v>0.8078150054437939</v>
+        <v>0.001876173938279015</v>
       </c>
       <c r="J17">
-        <v>0.8078150054437939</v>
+        <v>0.002623270165237634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0721803891926332</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N17">
-        <v>0.0721803891926332</v>
+        <v>56.265188</v>
       </c>
       <c r="O17">
-        <v>0.002494010937866957</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P17">
-        <v>0.002494010937866957</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q17">
-        <v>4.141512754706113</v>
+        <v>2.621745203423111</v>
       </c>
       <c r="R17">
-        <v>4.141512754706113</v>
+        <v>23.595706830808</v>
       </c>
       <c r="S17">
-        <v>0.002014699459349878</v>
+        <v>0.001176392534057341</v>
       </c>
       <c r="T17">
-        <v>0.002014699459349878</v>
+        <v>0.001647826169233655</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>57.3772571889762</v>
+        <v>0.1397886666666667</v>
       </c>
       <c r="H18">
-        <v>57.3772571889762</v>
+        <v>0.419366</v>
       </c>
       <c r="I18">
-        <v>0.8078150054437939</v>
+        <v>0.001876173938279015</v>
       </c>
       <c r="J18">
-        <v>0.8078150054437939</v>
+        <v>0.002623270165237634</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0164606016034156</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N18">
-        <v>0.0164606016034156</v>
+        <v>0.272773</v>
       </c>
       <c r="O18">
-        <v>0.0005687544899935063</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P18">
-        <v>0.0005687544899935063</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q18">
-        <v>0.944464171684451</v>
+        <v>0.01271019132422222</v>
       </c>
       <c r="R18">
-        <v>0.944464171684451</v>
+        <v>0.114391721918</v>
       </c>
       <c r="S18">
-        <v>0.0004594484114302865</v>
+        <v>5.703137803297185E-06</v>
       </c>
       <c r="T18">
-        <v>0.0004594484114302865</v>
+        <v>7.988642776069135E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>57.3772571889762</v>
+        <v>0.1397886666666667</v>
       </c>
       <c r="H19">
-        <v>57.3772571889762</v>
+        <v>0.419366</v>
       </c>
       <c r="I19">
-        <v>0.8078150054437939</v>
+        <v>0.001876173938279015</v>
       </c>
       <c r="J19">
-        <v>0.8078150054437939</v>
+        <v>0.002623270165237634</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>10.6364862150641</v>
+        <v>0.0902555</v>
       </c>
       <c r="N19">
-        <v>10.6364862150641</v>
+        <v>0.180511</v>
       </c>
       <c r="O19">
-        <v>0.3675169011633482</v>
+        <v>0.003017409946054226</v>
       </c>
       <c r="P19">
-        <v>0.3675169011633482</v>
+        <v>0.002015265515426615</v>
       </c>
       <c r="Q19">
-        <v>610.2924051487329</v>
+        <v>0.01261669600433333</v>
       </c>
       <c r="R19">
-        <v>610.2924051487329</v>
+        <v>0.075700176026</v>
       </c>
       <c r="S19">
-        <v>0.2968856675139564</v>
+        <v>5.661185901890828E-06</v>
       </c>
       <c r="T19">
-        <v>0.2968856675139564</v>
+        <v>5.286585901650881E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.3772571889762</v>
+        <v>6.082417333333333</v>
       </c>
       <c r="H20">
-        <v>57.3772571889762</v>
+        <v>18.247252</v>
       </c>
       <c r="I20">
-        <v>0.8078150054437939</v>
+        <v>0.08163517940798642</v>
       </c>
       <c r="J20">
-        <v>0.8078150054437939</v>
+        <v>0.1141424716576278</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1581705777213</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N20">
-        <v>18.1581705777213</v>
+        <v>0.145331</v>
       </c>
       <c r="O20">
-        <v>0.6274096958888786</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P20">
-        <v>0.6274096958888786</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q20">
-        <v>1041.866023319216</v>
+        <v>0.4419818967353333</v>
       </c>
       <c r="R20">
-        <v>1041.866023319216</v>
+        <v>2.651891380412</v>
       </c>
       <c r="S20">
-        <v>0.5068309668999635</v>
+        <v>0.0001983198835756723</v>
       </c>
       <c r="T20">
-        <v>0.5068309668999635</v>
+        <v>0.0001851970803816949</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.082417333333333</v>
+      </c>
+      <c r="H21">
+        <v>18.247252</v>
+      </c>
+      <c r="I21">
+        <v>0.08163517940798642</v>
+      </c>
+      <c r="J21">
+        <v>0.1141424716576278</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.03238966666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.09716900000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.001082847054743268</v>
+      </c>
+      <c r="P21">
+        <v>0.001084816630944866</v>
+      </c>
+      <c r="Q21">
+        <v>0.1970074699542222</v>
+      </c>
+      <c r="R21">
+        <v>1.773067229588</v>
+      </c>
+      <c r="S21">
+        <v>8.839841358537641E-05</v>
+      </c>
+      <c r="T21">
+        <v>0.0001238236515513477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.082417333333333</v>
+      </c>
+      <c r="H22">
+        <v>18.247252</v>
+      </c>
+      <c r="I22">
+        <v>0.08163517940798642</v>
+      </c>
+      <c r="J22">
+        <v>0.1141424716576278</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.87028266666667</v>
+      </c>
+      <c r="N22">
+        <v>32.610848</v>
+      </c>
+      <c r="O22">
+        <v>0.3634138532811946</v>
+      </c>
+      <c r="P22">
+        <v>0.364074861937605</v>
+      </c>
+      <c r="Q22">
+        <v>66.11759570996622</v>
+      </c>
+      <c r="R22">
+        <v>595.0583613896961</v>
+      </c>
+      <c r="S22">
+        <v>0.02966735511195798</v>
+      </c>
+      <c r="T22">
+        <v>0.04155640460996782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.082417333333333</v>
+      </c>
+      <c r="H23">
+        <v>18.247252</v>
+      </c>
+      <c r="I23">
+        <v>0.08163517940798642</v>
+      </c>
+      <c r="J23">
+        <v>0.1141424716576278</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>18.75506266666667</v>
+      </c>
+      <c r="N23">
+        <v>56.265188</v>
+      </c>
+      <c r="O23">
+        <v>0.6270167760332644</v>
+      </c>
+      <c r="P23">
+        <v>0.62815724856322</v>
+      </c>
+      <c r="Q23">
+        <v>114.0761182514862</v>
+      </c>
+      <c r="R23">
+        <v>1026.685064263376</v>
+      </c>
+      <c r="S23">
+        <v>0.05118662700329279</v>
+      </c>
+      <c r="T23">
+        <v>0.0716994209406608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.082417333333333</v>
+      </c>
+      <c r="H24">
+        <v>18.247252</v>
+      </c>
+      <c r="I24">
+        <v>0.08163517940798642</v>
+      </c>
+      <c r="J24">
+        <v>0.1141424716576278</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.09092433333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.272773</v>
+      </c>
+      <c r="O24">
+        <v>0.003039770293648031</v>
+      </c>
+      <c r="P24">
+        <v>0.003045299291674547</v>
+      </c>
+      <c r="Q24">
+        <v>0.5530397410884443</v>
+      </c>
+      <c r="R24">
+        <v>4.977357669796</v>
+      </c>
+      <c r="S24">
+        <v>0.0002481521932810246</v>
+      </c>
+      <c r="T24">
+        <v>0.0003475979880889559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.082417333333333</v>
+      </c>
+      <c r="H25">
+        <v>18.247252</v>
+      </c>
+      <c r="I25">
+        <v>0.08163517940798642</v>
+      </c>
+      <c r="J25">
+        <v>0.1141424716576278</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.0902555</v>
+      </c>
+      <c r="N25">
+        <v>0.180511</v>
+      </c>
+      <c r="O25">
+        <v>0.003017409946054226</v>
+      </c>
+      <c r="P25">
+        <v>0.002015265515426615</v>
+      </c>
+      <c r="Q25">
+        <v>0.5489716176286666</v>
+      </c>
+      <c r="R25">
+        <v>3.293829705772</v>
+      </c>
+      <c r="S25">
+        <v>0.0002463268022935794</v>
+      </c>
+      <c r="T25">
+        <v>0.0002300273869771771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>58.74972150000001</v>
+      </c>
+      <c r="H26">
+        <v>117.499443</v>
+      </c>
+      <c r="I26">
+        <v>0.7885095336254037</v>
+      </c>
+      <c r="J26">
+        <v>0.7349970747603285</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.07266549999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.145331</v>
+      </c>
+      <c r="O26">
+        <v>0.002429343391095317</v>
+      </c>
+      <c r="P26">
+        <v>0.001622508061129047</v>
+      </c>
+      <c r="Q26">
+        <v>4.26907788765825</v>
+      </c>
+      <c r="R26">
+        <v>17.076311550633</v>
+      </c>
+      <c r="S26">
+        <v>0.001915560424328525</v>
+      </c>
+      <c r="T26">
+        <v>0.001192538678704902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>58.74972150000001</v>
+      </c>
+      <c r="H27">
+        <v>117.499443</v>
+      </c>
+      <c r="I27">
+        <v>0.7885095336254037</v>
+      </c>
+      <c r="J27">
+        <v>0.7349970747603285</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.03238966666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.09716900000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.001082847054743268</v>
+      </c>
+      <c r="P27">
+        <v>0.001084816630944866</v>
+      </c>
+      <c r="Q27">
+        <v>1.9028838961445</v>
+      </c>
+      <c r="R27">
+        <v>11.417303376867</v>
+      </c>
+      <c r="S27">
+        <v>0.0008538352261232565</v>
+      </c>
+      <c r="T27">
+        <v>0.0007973370503958317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>57.3772571889762</v>
-      </c>
-      <c r="H21">
-        <v>57.3772571889762</v>
-      </c>
-      <c r="I21">
-        <v>0.8078150054437939</v>
-      </c>
-      <c r="J21">
-        <v>0.8078150054437939</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.0581908429145628</v>
-      </c>
-      <c r="N21">
-        <v>0.0581908429145628</v>
-      </c>
-      <c r="O21">
-        <v>0.002010637519912812</v>
-      </c>
-      <c r="P21">
-        <v>0.002010637519912812</v>
-      </c>
-      <c r="Q21">
-        <v>3.338830959952183</v>
-      </c>
-      <c r="R21">
-        <v>3.338830959952183</v>
-      </c>
-      <c r="S21">
-        <v>0.001624223159093865</v>
-      </c>
-      <c r="T21">
-        <v>0.001624223159093865</v>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>58.74972150000001</v>
+      </c>
+      <c r="H28">
+        <v>117.499443</v>
+      </c>
+      <c r="I28">
+        <v>0.7885095336254037</v>
+      </c>
+      <c r="J28">
+        <v>0.7349970747603285</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>10.87028266666667</v>
+      </c>
+      <c r="N28">
+        <v>32.610848</v>
+      </c>
+      <c r="O28">
+        <v>0.3634138532811946</v>
+      </c>
+      <c r="P28">
+        <v>0.364074861937605</v>
+      </c>
+      <c r="Q28">
+        <v>638.6260792929442</v>
+      </c>
+      <c r="R28">
+        <v>3831.756475757665</v>
+      </c>
+      <c r="S28">
+        <v>0.2865552879637657</v>
+      </c>
+      <c r="T28">
+        <v>0.2675939585179101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>58.74972150000001</v>
+      </c>
+      <c r="H29">
+        <v>117.499443</v>
+      </c>
+      <c r="I29">
+        <v>0.7885095336254037</v>
+      </c>
+      <c r="J29">
+        <v>0.7349970747603285</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>18.75506266666667</v>
+      </c>
+      <c r="N29">
+        <v>56.265188</v>
+      </c>
+      <c r="O29">
+        <v>0.6270167760332644</v>
+      </c>
+      <c r="P29">
+        <v>0.62815724856322</v>
+      </c>
+      <c r="Q29">
+        <v>1101.854708381714</v>
+      </c>
+      <c r="R29">
+        <v>6611.128250290285</v>
+      </c>
+      <c r="S29">
+        <v>0.4944087056452935</v>
+      </c>
+      <c r="T29">
+        <v>0.4616937401834633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>58.74972150000001</v>
+      </c>
+      <c r="H30">
+        <v>117.499443</v>
+      </c>
+      <c r="I30">
+        <v>0.7885095336254037</v>
+      </c>
+      <c r="J30">
+        <v>0.7349970747603285</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.09092433333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.272773</v>
+      </c>
+      <c r="O30">
+        <v>0.003039770293648031</v>
+      </c>
+      <c r="P30">
+        <v>0.003045299291674547</v>
+      </c>
+      <c r="Q30">
+        <v>5.341779260906501</v>
+      </c>
+      <c r="R30">
+        <v>32.050675565439</v>
+      </c>
+      <c r="S30">
+        <v>0.002396887856572765</v>
+      </c>
+      <c r="T30">
+        <v>0.002238286071150492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>58.74972150000001</v>
+      </c>
+      <c r="H31">
+        <v>117.499443</v>
+      </c>
+      <c r="I31">
+        <v>0.7885095336254037</v>
+      </c>
+      <c r="J31">
+        <v>0.7349970747603285</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.0902555</v>
+      </c>
+      <c r="N31">
+        <v>0.180511</v>
+      </c>
+      <c r="O31">
+        <v>0.003017409946054226</v>
+      </c>
+      <c r="P31">
+        <v>0.002015265515426615</v>
+      </c>
+      <c r="Q31">
+        <v>5.302485488843251</v>
+      </c>
+      <c r="R31">
+        <v>21.209941955373</v>
+      </c>
+      <c r="S31">
+        <v>0.002379256509319872</v>
+      </c>
+      <c r="T31">
+        <v>0.001481214258703928</v>
       </c>
     </row>
   </sheetData>
